--- a/Protokolle.xlsx
+++ b/Protokolle.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032046B2-502D-4542-A1E9-7EF2913050A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED8E369B-7CB0-4825-8374-470FF3C120B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>RabbitMQ Supports</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>https://blogs.vmware.com/vfabric/2013/02/choosing-your-messaging-protocol-amqp-mqtt-or-stomp.html</t>
+  </si>
+  <si>
+    <t>XMPP</t>
+  </si>
+  <si>
+    <t>Extensible Messaging and Presence Protocol</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/XMPP#XMPP_via_HTTP</t>
+  </si>
+  <si>
+    <t>Constrained Application Protocol</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constrained_Application_Protocol</t>
   </si>
 </sst>
 </file>
@@ -409,23 +424,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -436,7 +451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -447,7 +462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -458,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -469,95 +484,139 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G14" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="I14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F15" t="s">
         <v>17</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>